--- a/Documents/TaskList.xlsx
+++ b/Documents/TaskList.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F60C30-EA02-4A59-B516-01C3917398D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>{Name}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +87,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBD2B7D5-F919-47E4-8A50-8E5C90B4731C}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{07EEF7A8-11B2-4F0A-AE69-FCE41E158DA1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A7A60BF7-AC96-42E3-A8A0-E8C80A4FAFDB}" name="Hugo"/>
+    <tableColumn id="2" xr3:uid="{19EDEBC0-ACF2-438F-BA24-643559ADC964}" name="Sidney"/>
+    <tableColumn id="3" xr3:uid="{7096448F-F33E-4C7E-B504-1E1E9D6D2E4C}" name="Naomi"/>
+    <tableColumn id="4" xr3:uid="{3124E524-0290-4B82-A0F6-7F374AA26D34}" name="Luka"/>
+    <tableColumn id="5" xr3:uid="{E6FF76EB-578C-4AA7-9FC5-F3E5B86CCDCB}" name="{Name}"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +365,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>